--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Sizing reports/AEP-sample-Template.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Sizing reports/AEP-sample-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\1.9\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5960A8F-A872-4A85-BF8F-DA9BEC6342C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D648C7-88B0-4D34-891F-4A6B479EE060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="2505" windowWidth="21075" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_VERSION</t>
   </si>
   <si>
-    <t>RepGen:TABLE;AETP_LIST;COUNT=-1</t>
+    <t>RepGen:TABLE;AETP_LIST;COUNT=-1,FORMAT=N5</t>
   </si>
 </sst>
 </file>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1555,7 +1555,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CastReporting.Reporting.Core/Templates/zh-CN/Application/Sizing reports/AEP-sample-Template.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-CN/Application/Sizing reports/AEP-sample-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D648C7-88B0-4D34-891F-4A6B479EE060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F79EFD-4F7A-45A4-885A-6E03AEF86F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2505" windowWidth="21075" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -63,12 +63,6 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_DATE</t>
   </si>
   <si>
-    <t>RepGen:TABLE;AEFP_LIST;TYPE=DF,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;AEFP_LIST;TYPE=TF,COUNT=-1</t>
-  </si>
-  <si>
     <t>AEP</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>RepGen:TABLE;AETP_LIST;COUNT=-1,FORMAT=N5</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;AEFP_LIST;TYPE=TF,COUNT=-1,ZERO=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;AEFP_LIST;TYPE=DF,COUNT=-1,ZERO=NO</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1279,7 @@
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3"/>
       <c r="E1" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>5</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -1311,14 +1311,14 @@
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>6</v>
@@ -1335,36 +1335,36 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -1380,7 +1380,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1399,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3"/>
       <c r="E1" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>5</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -1438,22 +1438,22 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1468,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1486,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3"/>
       <c r="E1" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>5</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -1525,22 +1525,22 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1572,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3"/>
       <c r="E1" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>5</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
